--- a/public/excel_file/GC_Sample.xlsx
+++ b/public/excel_file/GC_Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp1\htdocs\project1\public\excel_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF7C84B-149F-41CA-AA35-2F2AB264E6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEBCDA5-2683-4523-893F-B6034B1EB363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sem 8 Spring 22 June 22'!$B$1:$EC$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="190">
   <si>
     <t>Student ID</t>
   </si>
@@ -562,6 +568,42 @@
   </si>
   <si>
     <t>Registrar</t>
+  </si>
+  <si>
+    <t>GUID0002</t>
+  </si>
+  <si>
+    <t>omkar</t>
+  </si>
+  <si>
+    <t>nishant</t>
+  </si>
+  <si>
+    <t>karjat</t>
+  </si>
+  <si>
+    <t>thane</t>
+  </si>
+  <si>
+    <t>Omkar patkar</t>
+  </si>
+  <si>
+    <t>nishant karale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPLORING DESIGN DISCIPLINE </t>
+  </si>
+  <si>
+    <t>dummy photo</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/young-asian-indian-student-with-glasses-backpack-holds-book-shows-thumbs-up_928503-89.jpg?w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/indian-college-boy-showing-diary-white-background_54391-6110.jpg?w=740</t>
+  </si>
+  <si>
+    <t>https://as2.ftcdn.net/v2/jpg/06/13/74/95/1000_F_613749525_Y1yxH6Ip7e3oJaMvLRYeciBWuXHWMLMV.webp</t>
   </si>
 </sst>
 </file>
@@ -733,7 +775,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -820,6 +862,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1106,122 +1149,28 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EG2"/>
+  <dimension ref="A1:EH4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="DU2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D2" sqref="D2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-      <selection pane="bottomRight" activeCell="DU2" sqref="DU2"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" customWidth="1"/>
-    <col min="33" max="33" width="13.28515625" customWidth="1"/>
-    <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="12.42578125" customWidth="1"/>
-    <col min="36" max="36" width="12.5703125" customWidth="1"/>
-    <col min="37" max="37" width="12.28515625" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" customWidth="1"/>
-    <col min="39" max="39" width="14.5703125" customWidth="1"/>
-    <col min="40" max="40" width="13.42578125" customWidth="1"/>
-    <col min="41" max="41" width="13.5703125" customWidth="1"/>
-    <col min="42" max="42" width="14.85546875" customWidth="1"/>
-    <col min="43" max="43" width="12.7109375" customWidth="1"/>
-    <col min="44" max="44" width="12.140625" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" customWidth="1"/>
-    <col min="46" max="46" width="12.7109375" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" customWidth="1"/>
-    <col min="48" max="48" width="14.140625" customWidth="1"/>
-    <col min="49" max="49" width="11.42578125" customWidth="1"/>
-    <col min="50" max="50" width="13.7109375" customWidth="1"/>
-    <col min="51" max="51" width="13.140625" customWidth="1"/>
-    <col min="52" max="52" width="12.85546875" customWidth="1"/>
-    <col min="53" max="53" width="11.7109375" customWidth="1"/>
-    <col min="54" max="54" width="16.140625" customWidth="1"/>
-    <col min="55" max="55" width="12.85546875" customWidth="1"/>
-    <col min="56" max="56" width="13.7109375" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="12.7109375" customWidth="1"/>
-    <col min="59" max="59" width="13" customWidth="1"/>
-    <col min="60" max="60" width="15" customWidth="1"/>
-    <col min="61" max="61" width="13" customWidth="1"/>
-    <col min="62" max="62" width="13.5703125" customWidth="1"/>
-    <col min="63" max="63" width="12.5703125" customWidth="1"/>
-    <col min="64" max="64" width="16.5703125" customWidth="1"/>
-    <col min="65" max="65" width="12.140625" customWidth="1"/>
-    <col min="66" max="66" width="11.28515625" customWidth="1"/>
-    <col min="67" max="67" width="10.7109375" customWidth="1"/>
-    <col min="68" max="68" width="15.85546875" customWidth="1"/>
-    <col min="69" max="69" width="14" customWidth="1"/>
-    <col min="70" max="70" width="14.5703125" customWidth="1"/>
-    <col min="71" max="71" width="11.5703125" customWidth="1"/>
-    <col min="72" max="72" width="12.28515625" customWidth="1"/>
-    <col min="73" max="73" width="12" customWidth="1"/>
-    <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="12.85546875" customWidth="1"/>
-    <col min="76" max="76" width="12.42578125" customWidth="1"/>
-    <col min="77" max="77" width="11" customWidth="1"/>
-    <col min="78" max="78" width="11.5703125" customWidth="1"/>
-    <col min="79" max="79" width="11.85546875" customWidth="1"/>
-    <col min="80" max="80" width="13.28515625" customWidth="1"/>
-    <col min="81" max="81" width="15" customWidth="1"/>
-    <col min="82" max="82" width="13.140625" customWidth="1"/>
-    <col min="83" max="83" width="12.85546875" customWidth="1"/>
-    <col min="84" max="84" width="13.42578125" customWidth="1"/>
-    <col min="85" max="85" width="14.5703125" customWidth="1"/>
-    <col min="86" max="86" width="12.28515625" customWidth="1"/>
-    <col min="87" max="87" width="14.5703125" customWidth="1"/>
-    <col min="88" max="88" width="14.28515625" customWidth="1"/>
-    <col min="89" max="89" width="13.28515625" customWidth="1"/>
-    <col min="90" max="90" width="15.42578125" customWidth="1"/>
-    <col min="91" max="91" width="13.28515625" customWidth="1"/>
-    <col min="92" max="92" width="15.28515625" customWidth="1"/>
-    <col min="93" max="93" width="14.140625" customWidth="1"/>
-    <col min="94" max="94" width="14.7109375" customWidth="1"/>
-    <col min="95" max="95" width="15" customWidth="1"/>
-    <col min="96" max="96" width="16.5703125" customWidth="1"/>
-    <col min="97" max="97" width="14.140625" customWidth="1"/>
-    <col min="98" max="98" width="13.140625" customWidth="1"/>
-    <col min="99" max="99" width="14.140625" customWidth="1"/>
-    <col min="100" max="100" width="15.140625" customWidth="1"/>
-    <col min="101" max="101" width="15.28515625" customWidth="1"/>
-    <col min="102" max="102" width="13.5703125" customWidth="1"/>
-    <col min="103" max="103" width="16.28515625" customWidth="1"/>
-    <col min="104" max="104" width="13.140625" customWidth="1"/>
-    <col min="105" max="105" width="12.7109375" customWidth="1"/>
-    <col min="106" max="107" width="12.5703125" customWidth="1"/>
-    <col min="108" max="108" width="13.7109375" customWidth="1"/>
-    <col min="109" max="109" width="11.28515625" customWidth="1"/>
-    <col min="110" max="110" width="12.85546875" customWidth="1"/>
-    <col min="111" max="111" width="14" customWidth="1"/>
-    <col min="112" max="112" width="14.42578125" customWidth="1"/>
-    <col min="113" max="114" width="13" customWidth="1"/>
-    <col min="115" max="116" width="11.7109375" customWidth="1"/>
-    <col min="117" max="117" width="13.7109375" customWidth="1"/>
-    <col min="118" max="118" width="13.28515625" customWidth="1"/>
-    <col min="119" max="119" width="11.7109375" customWidth="1"/>
-    <col min="120" max="120" width="11.42578125" customWidth="1"/>
-    <col min="121" max="121" width="15.7109375" customWidth="1"/>
-    <col min="122" max="122" width="11.5703125" customWidth="1"/>
-    <col min="123" max="123" width="13.42578125" customWidth="1"/>
-    <col min="124" max="124" width="12.7109375" customWidth="1"/>
-    <col min="125" max="125" width="11.7109375" customWidth="1"/>
-    <col min="126" max="126" width="11.42578125" customWidth="1"/>
-    <col min="129" max="129" width="27.7109375" customWidth="1"/>
-    <col min="130" max="130" width="71.5703125" customWidth="1"/>
-    <col min="133" max="133" width="14.7109375" customWidth="1"/>
+    <col min="32" max="32" width="31.5703125" customWidth="1"/>
+    <col min="128" max="128" width="32.85546875" customWidth="1"/>
+    <col min="129" max="129" width="21.85546875" customWidth="1"/>
+    <col min="130" max="130" width="49.42578125" customWidth="1"/>
+    <col min="133" max="133" width="34.42578125" customWidth="1"/>
+    <col min="135" max="135" width="27.140625" customWidth="1"/>
+    <col min="138" max="138" width="134.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:138" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
@@ -1633,8 +1582,11 @@
       <c r="EG1" t="s">
         <v>173</v>
       </c>
+      <c r="EH1" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="2" spans="1:137" ht="195.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:138" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>158</v>
       </c>
@@ -1719,7 +1671,7 @@
         <v>130</v>
       </c>
       <c r="AF2" s="23" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="AG2" s="21">
         <v>6</v>
@@ -2035,6 +1987,821 @@
       </c>
       <c r="EG2" t="s">
         <v>177</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:138" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="18">
+        <v>450112</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="22">
+        <v>36267</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="21">
+        <v>2018</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="21">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="24">
+        <v>17</v>
+      </c>
+      <c r="S3" s="21">
+        <v>0</v>
+      </c>
+      <c r="T3" s="26"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="21">
+        <v>17</v>
+      </c>
+      <c r="W3" s="21">
+        <v>50.5</v>
+      </c>
+      <c r="X3" s="24">
+        <v>3.26</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z3" s="27">
+        <v>3.26</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>50.5</v>
+      </c>
+      <c r="AC3" s="21">
+        <v>17</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>17</v>
+      </c>
+      <c r="AE3" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG3" s="21">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="21">
+        <v>6</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ3" s="24">
+        <v>3.4</v>
+      </c>
+      <c r="AK3" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL3" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM3" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN3" s="21">
+        <v>3</v>
+      </c>
+      <c r="AO3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>3.4</v>
+      </c>
+      <c r="AQ3" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="AT3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="AU3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV3" s="24">
+        <v>3.4</v>
+      </c>
+      <c r="AW3" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX3" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY3" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB3" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="BC3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE3" s="21">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="21">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH3" s="24">
+        <v>2.6</v>
+      </c>
+      <c r="BI3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="BL3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="BM3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="BX3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="BY3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BZ3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="CB3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CD3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CE3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="CF3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="CH3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="CI3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CJ3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CK3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="CL3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="CN3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="CO3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CP3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CQ3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="CR3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="CT3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="CU3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CV3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CW3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="CX3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="CZ3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="DA3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DB3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DC3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="DD3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="DE3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="DF3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="DG3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DH3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DI3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="DJ3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="DK3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="DM3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DN3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DO3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="DP3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ3" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="DR3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="DS3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="DT3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="DU3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="DV3" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="DW3" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX3" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY3" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="DZ3" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="EA3" s="22">
+        <v>44763</v>
+      </c>
+      <c r="EB3" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="EC3" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>174</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>175</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>176</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EH3" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:138" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="18">
+        <v>450112</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="22">
+        <v>36267</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="21">
+        <v>2018</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="21">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>0</v>
+      </c>
+      <c r="R4" s="24">
+        <v>17</v>
+      </c>
+      <c r="S4" s="21">
+        <v>0</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="21">
+        <v>17</v>
+      </c>
+      <c r="W4" s="21">
+        <v>50.5</v>
+      </c>
+      <c r="X4" s="24">
+        <v>3.26</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z4" s="27">
+        <v>3.26</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>50.5</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>17</v>
+      </c>
+      <c r="AD4" s="24">
+        <v>17</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF4" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ4" s="24">
+        <v>3.4</v>
+      </c>
+      <c r="AK4" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL4" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM4" s="21">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="21">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP4" s="24">
+        <v>3.4</v>
+      </c>
+      <c r="AQ4" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AR4" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="AT4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="AU4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV4" s="24">
+        <v>3.4</v>
+      </c>
+      <c r="AW4" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX4" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY4" s="21">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="21">
+        <v>3</v>
+      </c>
+      <c r="BA4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB4" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="BC4" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD4" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE4" s="21">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="21">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH4" s="24">
+        <v>2.6</v>
+      </c>
+      <c r="BI4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="BL4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="BM4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO4" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="BU4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="BX4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="BY4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BZ4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CA4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="CB4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CD4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CE4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="CF4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CG4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="CH4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="CI4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CJ4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CK4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="CL4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="CN4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="CO4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CP4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CQ4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="CR4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="CT4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="CU4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CV4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="CW4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="CX4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="CZ4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="DA4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DB4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DC4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="DD4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="DE4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="DF4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="DG4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DH4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DI4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="DJ4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="DK4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="DM4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DN4" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="DO4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="DP4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ4" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="DR4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="DS4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="DT4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="DU4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="DV4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="DW4" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX4" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="DY4" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="DZ4" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="EA4" s="22">
+        <v>44763</v>
+      </c>
+      <c r="EB4" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="EC4" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>174</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>175</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>176</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>177</v>
+      </c>
+      <c r="EH4" s="30" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2042,9 +2809,15 @@
   <hyperlinks>
     <hyperlink ref="DZ2" r:id="rId1" xr:uid="{FAC6A1DB-9CE8-4CB1-AFBE-C9B92656B34F}"/>
     <hyperlink ref="EC2" r:id="rId2" xr:uid="{D03B2E50-65DE-46DF-B311-EB4101DFC1BD}"/>
+    <hyperlink ref="DZ3" r:id="rId3" xr:uid="{9ACACBD8-D56B-4F11-90AA-1AC404858A50}"/>
+    <hyperlink ref="EC3" r:id="rId4" xr:uid="{C9B28875-0F89-4DB9-A02E-3F6B95E1B086}"/>
+    <hyperlink ref="DZ4" r:id="rId5" xr:uid="{D5360233-5F07-413C-A22E-0063BEC40BCE}"/>
+    <hyperlink ref="EC4" r:id="rId6" xr:uid="{6F3D5AA3-B4AC-4CB6-8B9E-E0F9D4F2E2D9}"/>
+    <hyperlink ref="EH3" r:id="rId7" xr:uid="{7631E9BC-BF32-478F-A465-A26EBD7AF266}"/>
+    <hyperlink ref="EH4" r:id="rId8" xr:uid="{2FB57506-58CB-485B-BFD4-80EE626DA42F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId9"/>
 </worksheet>
 </file>